--- a/python_report/state_files/DNH.xlsx
+++ b/python_report/state_files/DNH.xlsx
@@ -5,21 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\state_08.04.2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\Python Excel Reporting\python_report\state_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
   </bookViews>
   <sheets>
-    <sheet name="DNH ALLOCATION &amp;amp; DEMAND OF " sheetId="1" r:id="rId1"/>
+    <sheet name="DNH ALLOCATION &amp;amp%3b DEMAND O" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -47,9 +42,6 @@
     <t>Demand</t>
   </si>
   <si>
-    <t>Load Shedding</t>
-  </si>
-  <si>
     <t>Total Energy Consumption</t>
   </si>
   <si>
@@ -59,23 +51,26 @@
     <t>220KV AMBHETI(Vapi)-KHARADAPADA</t>
   </si>
   <si>
+    <t>220KV AMBHETI(Vapi)-Bhilosa</t>
+  </si>
+  <si>
+    <t>220 KV AMBHETI-SAYALI</t>
+  </si>
+  <si>
     <t>220KV AMBHETI(Vapi)-KHADOLI</t>
   </si>
   <si>
-    <t>220 KV KALA-KHADOLI -I</t>
-  </si>
-  <si>
-    <t>220 KV KALA-KHADOLI -II</t>
-  </si>
-  <si>
-    <t>220 KV AMBHETI-SAYALI</t>
+    <t>220 KV KALA-KHADOLI L&amp;T METER</t>
+  </si>
+  <si>
+    <t>220 KV KALA-new kharadpada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +78,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -100,20 +395,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,41 +871,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>43198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -435,281 +910,285 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="2">
-        <v>710</v>
-      </c>
-      <c r="C8" s="2">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>735</v>
+      </c>
+      <c r="C8">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="2">
-        <v>710</v>
-      </c>
-      <c r="C9" s="2">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>734</v>
+      </c>
+      <c r="C9">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>715</v>
-      </c>
-      <c r="C10" s="2">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>731</v>
+      </c>
+      <c r="C10">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="2">
-        <v>715</v>
-      </c>
-      <c r="C11" s="2">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>727</v>
+      </c>
+      <c r="C11">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="2">
-        <v>696</v>
-      </c>
-      <c r="C12" s="2">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>723</v>
+      </c>
+      <c r="C12">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="2">
-        <v>697</v>
-      </c>
-      <c r="C13" s="2">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>719</v>
+      </c>
+      <c r="C13">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="2">
-        <v>707</v>
-      </c>
-      <c r="C14" s="2">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>719</v>
+      </c>
+      <c r="C14">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
-        <v>707</v>
-      </c>
-      <c r="C15" s="2">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>721</v>
+      </c>
+      <c r="C15">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="2">
-        <v>713</v>
-      </c>
-      <c r="C16" s="2">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>732</v>
+      </c>
+      <c r="C16">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17" s="2">
-        <v>735</v>
-      </c>
-      <c r="C17" s="2">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>761</v>
+      </c>
+      <c r="C17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" s="2">
-        <v>718</v>
-      </c>
-      <c r="C18" s="2">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>753</v>
+      </c>
+      <c r="C18">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
-      <c r="B19" s="2">
-        <v>706</v>
-      </c>
-      <c r="C19" s="2">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>750</v>
+      </c>
+      <c r="C19">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
-      <c r="B20" s="2">
-        <v>706</v>
-      </c>
-      <c r="C20" s="2">
-        <v>745</v>
-      </c>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>754</v>
+      </c>
+      <c r="C20">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
-      <c r="B21" s="2">
-        <v>706</v>
-      </c>
-      <c r="C21" s="2">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>750</v>
+      </c>
+      <c r="C21">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
-      <c r="B22" s="2">
-        <v>724</v>
-      </c>
-      <c r="C22" s="2">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>761</v>
+      </c>
+      <c r="C22">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
-      <c r="B23" s="2">
-        <v>716</v>
-      </c>
-      <c r="C23" s="2">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>755</v>
+      </c>
+      <c r="C23">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
-      <c r="B24" s="2">
-        <v>716</v>
-      </c>
-      <c r="C24" s="2">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>759</v>
+      </c>
+      <c r="C24">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
-      <c r="B25" s="2">
-        <v>708</v>
-      </c>
-      <c r="C25" s="2">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>763</v>
+      </c>
+      <c r="C25">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
-      <c r="B26" s="2">
-        <v>754</v>
-      </c>
-      <c r="C26" s="2">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>781</v>
+      </c>
+      <c r="C26">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
-      <c r="B27" s="2">
-        <v>710</v>
-      </c>
-      <c r="C27" s="2">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>778</v>
+      </c>
+      <c r="C27">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
-      <c r="B28" s="2">
-        <v>715</v>
-      </c>
-      <c r="C28" s="2">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>774</v>
+      </c>
+      <c r="C28">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
-      <c r="B29" s="2">
-        <v>723</v>
-      </c>
-      <c r="C29" s="2">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>774</v>
+      </c>
+      <c r="C29">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
-      <c r="B30" s="2">
-        <v>716</v>
-      </c>
-      <c r="C30" s="2">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>764</v>
+      </c>
+      <c r="C30">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
-      <c r="B31" s="2">
-        <v>718</v>
-      </c>
-      <c r="C31" s="2">
-        <v>722</v>
+      <c r="B31">
+        <v>761</v>
+      </c>
+      <c r="C31">
+        <v>662</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>9</v>
+      </c>
+      <c r="D35">
+        <v>2.5179200000000002</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <v>4.9075199999999999</v>
+        <v>2.5691999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="D37">
-        <v>0.43008000000000002</v>
+        <v>0.89119999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="D38">
-        <v>5.6608000000000001</v>
+        <v>0.22608</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -741,7 +1220,7 @@
         <v>13</v>
       </c>
       <c r="D39">
-        <v>5.6631999999999998</v>
+        <v>6.0015999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,19 +1228,18 @@
         <v>14</v>
       </c>
       <c r="D40">
-        <v>1.0387200000000001</v>
+        <v>6.1416000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>17.700320000000001</v>
+        <v>18.3476</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>